--- a/REFERÊNCIA+RELATIVA+-+ABSOLUTA+-+MISTA.xlsx
+++ b/REFERÊNCIA+RELATIVA+-+ABSOLUTA+-+MISTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Power BI Desktop - DAX (Data Analysis Expressions) - Fundamentais - Etapa 2\Seção 2 - Módulo Bônus - EXEL PLENO\Bases de DADOS Excel Pleno\REFERÊNCIAS MISTA E RELATIVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbb0bfc3935069fc/Documentos/GitHub/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF8416-E81D-41AB-BB27-1318426BB7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{B5CF8416-E81D-41AB-BB27-1318426BB7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE6C5ADC-EDBD-44C3-8B3C-E0328D8EFCD6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="828" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RELATIVA" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="Exercício_Referência Mista" sheetId="5" r:id="rId4"/>
     <sheet name="Exercício_Referência Mista 02" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1174,9 +1187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1214,9 +1227,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1249,26 +1262,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1301,26 +1297,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1496,25 +1475,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showFormulas="1" zoomScale="76" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.8">
+    <row r="1" spans="1:18" ht="26.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6">
+    <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="7" t="s">
@@ -1551,14 +1530,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6">
+    <row r="3" spans="1:18" ht="15.75">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <f>A3*B3</f>
+        <v>5</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="5">
         <v>5</v>
@@ -1591,14 +1573,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6">
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C12" si="0">A4*B4</f>
+        <v>10</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1613,77 +1598,101 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="15.6">
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6">
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.6">
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.6">
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.6">
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.6">
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.6">
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.6">
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1703,14 +1712,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1966,24 +1975,24 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2021,14 +2030,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.6">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <f>A3*B$3</f>
+        <v>5</v>
+      </c>
       <c r="G3" s="6">
         <v>5</v>
       </c>
@@ -2042,83 +2054,140 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6">
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C12" si="0">A4*B$3</f>
+        <v>10</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6">
+      <c r="G4" s="6">
+        <f>G2*$G3</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:P4" si="1">H2*$G3</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6">
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6">
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6">
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.6">
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.6">
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.6">
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.6">
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="30" spans="4:4" ht="91.8">
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" ht="92.25">
       <c r="D30" s="17"/>
     </row>
   </sheetData>
@@ -2136,17 +2205,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2212,8 +2281,14 @@
       <c r="D5" s="12">
         <v>30</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="13">
+        <f>C5*D5</f>
+        <v>300</v>
+      </c>
+      <c r="F5" s="13">
+        <f>E5*(1-C$3)</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -2228,8 +2303,14 @@
       <c r="D6" s="12">
         <v>50</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="13">
+        <f t="shared" ref="E6:E10" si="0">C6*D6</f>
+        <v>250</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" ref="F6:F10" si="1">E6*(1-C$3)</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -2244,8 +2325,14 @@
       <c r="D7" s="12">
         <v>40</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -2260,8 +2347,14 @@
       <c r="D8" s="12">
         <v>70</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -2276,8 +2369,14 @@
       <c r="D9" s="12">
         <v>65</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>760.5</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -2292,8 +2391,14 @@
       <c r="D10" s="12">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2307,13 +2412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.6" thickTop="1" thickBot="1">
+    <row r="1" spans="1:10" ht="45.75" thickTop="1" thickBot="1">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
@@ -2345,133 +2450,376 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="22">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B2" s="18">
+        <f>$A2*B$1</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="18">
+        <f t="shared" ref="C2:J10" si="0">$A2*C$1</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G2" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H2" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J2" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="22">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B3" s="18">
+        <f t="shared" ref="B3:B10" si="1">$A3*B$1</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E3" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I3" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="22">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B4" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="22">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B5" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="22">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B6" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="22">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B7" s="18">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="22">
         <v>8</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B8" s="18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="22">
         <v>9</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B9" s="18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="22">
         <v>10</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickTop="1">
+      <c r="B10" s="18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>

--- a/REFERÊNCIA+RELATIVA+-+ABSOLUTA+-+MISTA.xlsx
+++ b/REFERÊNCIA+RELATIVA+-+ABSOLUTA+-+MISTA.xlsx
@@ -1186,6 +1186,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
